--- a/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/07+CADASTRO+DAS+OPÇÕES+ESPECIF+PAR.xlsx
+++ b/ESTUDOS/CodigoInteligente/Material de leitura/DownLoad1/07+CADASTRO+DAS+OPÇÕES+ESPECIF+PAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DBrizes Celestino Serviços - ME\UDEMY\Configurador de Produtos\MATERIAL DE APOIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rogério\Documents\Workspace\ESTUDOS\CodigoInteligente\Material de leitura\DownLoad1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71937EFE-6331-4B39-B1EF-D1A3FB1522FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F33F06-0D2E-4465-9B84-F0E6B2649FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12200" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8A27DD40-0B84-4F36-A3D1-233F6A01A0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="SBS PAR" sheetId="4" r:id="rId1"/>
@@ -603,6 +603,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>292725</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>127328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1951941A-7B3F-30C4-A25D-309D72B04CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="11417300"/>
+          <a:ext cx="12154525" cy="6388428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -904,22 +953,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09E5BE2-4B71-4080-BCB4-E5132C04E69A}">
   <dimension ref="A1:L1068"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="7.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625"/>
+    <col min="7" max="10" width="8.81640625" style="1"/>
+    <col min="11" max="11" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>127</v>
       </c>
@@ -936,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>98</v>
       </c>
@@ -955,7 +1005,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="10" t="s">
         <v>147</v>
@@ -972,7 +1022,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="10" t="s">
         <v>147</v>
@@ -989,7 +1039,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="10" t="s">
         <v>147</v>
@@ -1006,7 +1056,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="10" t="s">
         <v>147</v>
@@ -1023,7 +1073,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
         <v>147</v>
@@ -1040,7 +1090,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
         <v>147</v>
@@ -1057,7 +1107,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="10" t="s">
         <v>147</v>
@@ -1074,7 +1124,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>119</v>
       </c>
@@ -1093,7 +1143,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="10" t="s">
         <v>147</v>
@@ -1110,7 +1160,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="10" t="s">
         <v>147</v>
@@ -1127,7 +1177,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="10" t="s">
         <v>147</v>
@@ -1144,7 +1194,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
         <v>147</v>
@@ -1161,7 +1211,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="10" t="s">
         <v>147</v>
@@ -1178,7 +1228,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="10" t="s">
         <v>147</v>
@@ -1195,7 +1245,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="10" t="s">
         <v>147</v>
@@ -1212,7 +1262,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="10" t="s">
         <v>147</v>
@@ -1229,7 +1279,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="10" t="s">
         <v>147</v>
@@ -1246,7 +1296,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="10" t="s">
         <v>147</v>
@@ -1263,7 +1313,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="10" t="s">
         <v>147</v>
@@ -1280,7 +1330,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="10" t="s">
         <v>147</v>
@@ -1297,7 +1347,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="10" t="s">
         <v>147</v>
@@ -1314,7 +1364,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>120</v>
       </c>
@@ -1333,7 +1383,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="10" t="s">
         <v>147</v>
@@ -1350,7 +1400,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="10" t="s">
         <v>147</v>
@@ -1367,7 +1417,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="10" t="s">
         <v>147</v>
@@ -1384,7 +1434,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="10" t="s">
         <v>147</v>
@@ -1401,7 +1451,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="10" t="s">
         <v>147</v>
@@ -1418,7 +1468,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="10" t="s">
         <v>147</v>
@@ -1435,7 +1485,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>121</v>
       </c>
@@ -1454,7 +1504,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="10" t="s">
         <v>147</v>
@@ -1471,7 +1521,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="10" t="s">
         <v>147</v>
@@ -1488,7 +1538,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="10" t="s">
         <v>147</v>
@@ -1503,7 +1553,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="10" t="s">
         <v>147</v>
@@ -1518,7 +1568,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="10" t="s">
         <v>147</v>
@@ -1533,7 +1583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>122</v>
       </c>
@@ -1550,7 +1600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="10" t="s">
         <v>147</v>
@@ -1565,7 +1615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="10" t="s">
         <v>147</v>
@@ -1580,7 +1630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
       <c r="B40" s="10" t="s">
         <v>147</v>
@@ -1595,7 +1645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="10" t="s">
         <v>147</v>
@@ -1610,7 +1660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="10" t="s">
         <v>147</v>
@@ -1625,7 +1675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="10" t="s">
         <v>147</v>
@@ -1640,7 +1690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="10" t="s">
         <v>147</v>
@@ -1655,7 +1705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="10" t="s">
         <v>147</v>
@@ -1670,7 +1720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="10" t="s">
         <v>147</v>
@@ -1685,7 +1735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>123</v>
       </c>
@@ -1702,7 +1752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="10" t="s">
         <v>147</v>
@@ -1717,7 +1767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="10" t="s">
         <v>147</v>
@@ -1732,7 +1782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="10" t="s">
         <v>147</v>
@@ -1747,7 +1797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="10" t="s">
         <v>147</v>
@@ -1762,7 +1812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="10" t="s">
         <v>147</v>
@@ -1777,7 +1827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="11"/>
       <c r="B53" s="10" t="s">
         <v>147</v>
@@ -1792,7 +1842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="10" t="s">
         <v>147</v>
@@ -1807,7 +1857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
       <c r="B55" s="10" t="s">
         <v>147</v>
@@ -1822,7 +1872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
       <c r="B56" s="10" t="s">
         <v>147</v>
@@ -1837,7 +1887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
       <c r="B57" s="10" t="s">
         <v>147</v>
@@ -1852,7 +1902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
       <c r="B58" s="10" t="s">
         <v>147</v>
@@ -1867,7 +1917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
       <c r="B59" s="10" t="s">
         <v>147</v>
@@ -1882,7 +1932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
       <c r="B60" s="10" t="s">
         <v>147</v>
@@ -1897,7 +1947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>124</v>
       </c>
@@ -1914,7 +1964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
       <c r="B62" s="10" t="s">
         <v>147</v>
@@ -1930,7 +1980,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
       <c r="B63" s="10" t="s">
         <v>147</v>
@@ -1946,7 +1996,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="10" t="s">
         <v>147</v>
@@ -1962,7 +2012,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
       <c r="B65" s="10" t="s">
         <v>147</v>
@@ -1978,7 +2028,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
       <c r="B66" s="10" t="s">
         <v>147</v>
@@ -1994,7 +2044,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="10" t="s">
         <v>147</v>
@@ -2010,7 +2060,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>146</v>
       </c>
@@ -2028,7 +2078,7 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="10" t="s">
         <v>147</v>
@@ -2044,7 +2094,7 @@
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="10" t="s">
         <v>147</v>
@@ -2060,7 +2110,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="11"/>
       <c r="B71" s="10" t="s">
         <v>147</v>
@@ -2076,7 +2126,7 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="B72" s="10" t="s">
         <v>147</v>
@@ -2092,153 +2142,153 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="1047" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1047" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1047" s="1"/>
     </row>
-    <row r="1048" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1048" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1048" s="1"/>
     </row>
-    <row r="1049" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1049" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1049" s="1"/>
     </row>
-    <row r="1056" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1056" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1056" s="1"/>
       <c r="G1056" s="2"/>
     </row>
-    <row r="1057" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1057" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1057" s="1"/>
       <c r="G1057" s="2"/>
     </row>
-    <row r="1058" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1058" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1058" s="1"/>
       <c r="G1058" s="2"/>
     </row>
-    <row r="1059" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1059" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1059" s="1"/>
       <c r="G1059" s="2"/>
     </row>
-    <row r="1060" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1060" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1060" s="1"/>
       <c r="G1060" s="2"/>
     </row>
-    <row r="1061" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1061" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1061" s="1"/>
       <c r="G1061" s="2"/>
     </row>
-    <row r="1062" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1062" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1062" s="1"/>
       <c r="G1062" s="2"/>
     </row>
-    <row r="1063" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1063" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1063" s="1"/>
       <c r="G1063" s="2"/>
     </row>
-    <row r="1064" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1064" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1064" s="1"/>
       <c r="G1064" s="2"/>
     </row>
-    <row r="1065" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1065" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1065" s="1"/>
       <c r="G1065" s="2"/>
     </row>
-    <row r="1066" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1066" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1066" s="1"/>
       <c r="G1066" s="2"/>
     </row>
-    <row r="1067" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1067" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1067" s="1"/>
       <c r="G1067" s="2"/>
     </row>
-    <row r="1068" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="1068" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1068" s="1"/>
       <c r="G1068" s="2"/>
     </row>
@@ -2259,5 +2309,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>